--- a/howtodoinjava_demo.xlsx
+++ b/howtodoinjava_demo.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Employee Data" r:id="rId3" sheetId="1"/>
+    <sheet name="Employee Data2" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>ID</t>
+    <t>Student ID</t>
   </si>
   <si>
     <t>NAME</t>
